--- a/TrueValue/most_samll_test_3个变量真实值.xlsx
+++ b/TrueValue/most_samll_test_3个变量真实值.xlsx
@@ -3,41 +3,47 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="14880" windowHeight="4980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>X3</t>
+    <t>true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="21">
@@ -56,6 +62,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -63,31 +85,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,9 +101,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,77 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -194,7 +179,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,19 +215,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,97 +365,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,55 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,47 +425,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -470,15 +435,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +458,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -515,97 +486,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,110 +650,83 @@
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1018,30 +1027,30 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="21.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>42604.0833333333</v>
       </c>
       <c r="B2">
@@ -1055,7 +1064,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>42604.09375</v>
       </c>
       <c r="B3">
@@ -1069,7 +1078,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>42604.1041666667</v>
       </c>
       <c r="B4">
@@ -1083,7 +1092,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>42604.1145833333</v>
       </c>
       <c r="B5">
@@ -1097,7 +1106,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>42604.125</v>
       </c>
       <c r="B6">
@@ -1111,7 +1120,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>42604.1354166667</v>
       </c>
       <c r="B7">
@@ -1125,7 +1134,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>42604.1458333333</v>
       </c>
       <c r="B8">
@@ -1139,7 +1148,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>42604.15625</v>
       </c>
       <c r="B9">
@@ -1153,7 +1162,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>42604.1666666667</v>
       </c>
       <c r="B10">
@@ -1167,7 +1176,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>42604.1770833333</v>
       </c>
       <c r="B11">
@@ -1181,7 +1190,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>42604.1875</v>
       </c>
       <c r="B12">
@@ -1195,7 +1204,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>42604.1979166667</v>
       </c>
       <c r="B13">
@@ -1209,7 +1218,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>42604.2083333333</v>
       </c>
       <c r="B14">
@@ -1223,7 +1232,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>42604.21875</v>
       </c>
       <c r="B15">
@@ -1237,7 +1246,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>42604.2291666667</v>
       </c>
       <c r="B16">
@@ -1251,7 +1260,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>42604.2395833333</v>
       </c>
       <c r="B17">
@@ -1265,7 +1274,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>42604.25</v>
       </c>
       <c r="B18">
@@ -1279,7 +1288,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>42604.2604166667</v>
       </c>
       <c r="B19">
@@ -1293,7 +1302,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>42604.2708333333</v>
       </c>
       <c r="B20">
@@ -1307,7 +1316,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>42604.28125</v>
       </c>
       <c r="B21">
@@ -1321,7 +1330,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>42604.2916666667</v>
       </c>
       <c r="B22">
@@ -1335,7 +1344,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>42604.3020833333</v>
       </c>
       <c r="B23">
@@ -1349,7 +1358,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>42604.3125</v>
       </c>
       <c r="B24">
@@ -1363,7 +1372,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>42604.3229166667</v>
       </c>
       <c r="B25">
@@ -1377,7 +1386,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>42604.3333333333</v>
       </c>
       <c r="B26">
@@ -1391,7 +1400,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>42604.34375</v>
       </c>
       <c r="B27">
@@ -1405,7 +1414,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>42604.3541666667</v>
       </c>
       <c r="B28">
@@ -1419,7 +1428,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>42604.3645833333</v>
       </c>
       <c r="B29">
@@ -1433,7 +1442,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>42604.375</v>
       </c>
       <c r="B30">
@@ -1447,7 +1456,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>42604.3854166667</v>
       </c>
       <c r="B31">
@@ -1461,7 +1470,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>42604.3958333333</v>
       </c>
       <c r="B32">
@@ -1475,7 +1484,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>42604.40625</v>
       </c>
       <c r="B33">
@@ -1489,7 +1498,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>42604.4166666667</v>
       </c>
       <c r="B34">
@@ -1503,7 +1512,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>42604.4270833333</v>
       </c>
       <c r="B35">
@@ -1517,7 +1526,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>42604.4375</v>
       </c>
       <c r="B36">
@@ -1531,7 +1540,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>42604.4479166667</v>
       </c>
       <c r="B37">
@@ -1545,7 +1554,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>42604.4583333333</v>
       </c>
       <c r="B38">
@@ -1559,7 +1568,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>42604.46875</v>
       </c>
       <c r="B39">
@@ -1573,7 +1582,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>42604.4791666667</v>
       </c>
       <c r="B40">
@@ -1587,7 +1596,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>42604.4895833333</v>
       </c>
       <c r="B41">
@@ -1601,7 +1610,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>42604.5</v>
       </c>
       <c r="B42">
@@ -1615,7 +1624,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>42604.5104166667</v>
       </c>
       <c r="B43">
@@ -1629,7 +1638,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>42604.5208333333</v>
       </c>
       <c r="B44">
@@ -1643,7 +1652,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>42604.53125</v>
       </c>
       <c r="B45">
@@ -1657,7 +1666,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>42604.5416666667</v>
       </c>
       <c r="B46">
@@ -1671,7 +1680,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>42604.5520833333</v>
       </c>
       <c r="B47">
@@ -1685,7 +1694,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>42604.5625</v>
       </c>
       <c r="B48">
@@ -1699,7 +1708,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>42604.5729166667</v>
       </c>
       <c r="B49">
